--- a/Application.xlsx
+++ b/Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C3C64-BC6B-4E30-9C80-81338290EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39228A8-DE47-4D0F-8B61-038143A9F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DCAED12A-74C9-475E-8819-6EFA457DDD68}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="262">
   <si>
     <t>Camtasia 2021 (crack sẵn r)</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Template trello</t>
+  </si>
+  <si>
+    <t>https://github.com/NguyenLoi123123/document/blob/main/trello/M%E1%BB%A5c%20%C4%91%C3%ADch.md</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1260,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1893,7 +1896,7 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="47"/>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="56" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="47"/>
-      <c r="F5" s="61"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -1930,7 +1933,7 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="56" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1946,7 +1949,7 @@
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="61"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1971,7 +1974,7 @@
       <c r="E10" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="56" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1991,7 +1994,7 @@
       <c r="E11" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
@@ -2009,7 +2012,7 @@
       <c r="E12" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
@@ -2027,7 +2030,7 @@
       <c r="E13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2048,7 +2051,7 @@
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="61" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2066,7 +2069,7 @@
       <c r="E16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
@@ -2084,7 +2087,7 @@
       <c r="E17" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
@@ -2102,7 +2105,7 @@
       <c r="E18" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
@@ -2123,7 +2126,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="56" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2141,7 +2144,7 @@
       <c r="E21" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
@@ -2164,7 +2167,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="56" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
@@ -2205,7 +2208,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="56" t="s">
         <v>203</v>
       </c>
       <c r="I26" s="1"/>
@@ -2226,7 +2229,7 @@
       <c r="E27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
@@ -2249,7 +2252,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="56" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2269,7 +2272,7 @@
       <c r="E30" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
@@ -2290,7 +2293,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="56" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2304,7 +2307,7 @@
       <c r="C33" s="44"/>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="61"/>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
@@ -2318,7 +2321,7 @@
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="61"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
@@ -2334,7 +2337,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="26"/>
-      <c r="F35" s="61"/>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
@@ -2348,7 +2351,7 @@
         <v>175</v>
       </c>
       <c r="E36" s="26"/>
-      <c r="F36" s="61"/>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
@@ -2385,7 +2388,7 @@
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="56"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
@@ -2399,7 +2402,7 @@
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="56"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
@@ -2544,7 +2547,7 @@
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="56"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
@@ -2558,7 +2561,7 @@
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
-      <c r="F52" s="56"/>
+      <c r="F52" s="61"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
@@ -2734,7 +2737,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="56" t="s">
+      <c r="F66" s="61" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2750,7 +2753,7 @@
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="61"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
@@ -2764,7 +2767,7 @@
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
-      <c r="F68" s="56"/>
+      <c r="F68" s="61"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
@@ -2780,7 +2783,7 @@
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="56" t="s">
+      <c r="F70" s="61" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2798,7 +2801,7 @@
         <v>258</v>
       </c>
       <c r="E71" s="32"/>
-      <c r="F71" s="56"/>
+      <c r="F71" s="61"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
@@ -2812,7 +2815,7 @@
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F73" s="56" t="s">
+      <c r="F73" s="61" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2828,7 +2831,7 @@
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="56"/>
+      <c r="F74" s="61"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
@@ -3245,17 +3248,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="F42:F48"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="F66:F68"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="F73:F74"/>
@@ -3265,6 +3257,17 @@
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="F38:F40"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -3286,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1841624C-BDA0-40D9-87FC-6B27146E1BE7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,9 +3300,12 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
